--- a/temp.xlsx
+++ b/temp.xlsx
@@ -469,25 +469,25 @@
         <v>18628</v>
       </c>
       <c r="B2">
-        <v>8.511580254038231</v>
+        <v>8.556217095068172</v>
       </c>
       <c r="C2">
-        <v>1.113383054416055</v>
+        <v>1.10115111410369</v>
       </c>
       <c r="D2">
-        <v>-0.02494112915088383</v>
+        <v>-0.0269300565905724</v>
       </c>
       <c r="E2">
-        <v>-0.02342455166137699</v>
+        <v>-0.02541249457331191</v>
       </c>
       <c r="F2">
-        <v>0.5308073493111067</v>
+        <v>0.53096154054719</v>
       </c>
       <c r="G2">
-        <v>-0.05673028476356741</v>
+        <v>-0.0566934260412159</v>
       </c>
       <c r="H2">
-        <v>2.626978662247927</v>
+        <v>2.626979273764463</v>
       </c>
       <c r="I2">
         <v>3.512196029718954</v>
@@ -499,31 +499,31 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.544719134492701</v>
+        <v>1.548266052699182</v>
       </c>
       <c r="M2">
-        <v>0.1262074688929622</v>
+        <v>0.1262225372095022</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.4190556026848413</v>
+        <v>-0.4123829171547769</v>
       </c>
       <c r="P2">
-        <v>-0.02103618573707569</v>
+        <v>-0.02389119808269426</v>
       </c>
       <c r="Q2">
-        <v>-0.09703284018098211</v>
+        <v>-0.06767004857859674</v>
       </c>
       <c r="R2">
-        <v>-0.1490414809846092</v>
+        <v>-0.1251560149940054</v>
       </c>
       <c r="S2">
-        <v>-0.1435908190345697</v>
+        <v>-0.1435810697138112</v>
       </c>
       <c r="T2">
-        <v>0.001705523349219031</v>
+        <v>0.001705538175375023</v>
       </c>
       <c r="U2">
         <v>145.9</v>
@@ -534,64 +534,64 @@
         <v>18718</v>
       </c>
       <c r="B3">
-        <v>-0.5772871519464109</v>
+        <v>-0.6152339580978914</v>
       </c>
       <c r="C3">
-        <v>2.210892536755725</v>
+        <v>2.475333594421048</v>
       </c>
       <c r="D3">
-        <v>0.002262960676962716</v>
+        <v>0.0005552367377877178</v>
       </c>
       <c r="E3">
-        <v>-0.01277721660386783</v>
+        <v>-0.01472512092925327</v>
       </c>
       <c r="F3">
-        <v>0.1387245198517363</v>
+        <v>0.1498852190246123</v>
       </c>
       <c r="G3">
-        <v>0.28336591115597</v>
+        <v>0.2833788699215964</v>
       </c>
       <c r="H3">
-        <v>-1.528896105429652</v>
+        <v>-1.528861199310314</v>
       </c>
       <c r="I3">
-        <v>-0.4273888626231531</v>
+        <v>-0.4273791763175387</v>
       </c>
       <c r="J3">
-        <v>0.3461094238701782</v>
+        <v>0.3461015796749995</v>
       </c>
       <c r="K3">
-        <v>0.1352265083178461</v>
+        <v>0.1352234435555154</v>
       </c>
       <c r="L3">
-        <v>-0.6807592575001056</v>
+        <v>-0.7540890628075889</v>
       </c>
       <c r="M3">
-        <v>0.4386184178935627</v>
+        <v>0.4386211562867122</v>
       </c>
       <c r="N3">
-        <v>0.118715198767055</v>
+        <v>0.1187125082156698</v>
       </c>
       <c r="O3">
-        <v>-1.0847611905172</v>
+        <v>-1.349139135801224</v>
       </c>
       <c r="P3">
-        <v>-0.01062284916741797</v>
+        <v>-0.01307342158732411</v>
       </c>
       <c r="Q3">
-        <v>-0.05436652423806611</v>
+        <v>-0.02574089963771766</v>
       </c>
       <c r="R3">
-        <v>0.01635240275767998</v>
+        <v>0.03159998937700942</v>
       </c>
       <c r="S3">
-        <v>-0.2903867217218735</v>
+        <v>-0.2903750140616631</v>
       </c>
       <c r="T3">
-        <v>-0.0008288529876655361</v>
+        <v>-0.0008288217271714355</v>
       </c>
       <c r="U3">
-        <v>106.4624674002659</v>
+        <v>103.1076123690632</v>
       </c>
     </row>
     <row r="4">
@@ -599,25 +599,25 @@
         <v>18809</v>
       </c>
       <c r="B4">
-        <v>-0.5840828532429607</v>
+        <v>-0.6376128415851348</v>
       </c>
       <c r="C4">
-        <v>0.4153533079283257</v>
+        <v>0.6989307717617423</v>
       </c>
       <c r="D4">
-        <v>0.009753108547565476</v>
+        <v>0.008082360060041389</v>
       </c>
       <c r="E4">
-        <v>-0.08186420880353749</v>
+        <v>-0.08286087491903898</v>
       </c>
       <c r="F4">
-        <v>0.2713077609178866</v>
+        <v>0.2847124046953079</v>
       </c>
       <c r="G4">
-        <v>-0.3980959058138909</v>
+        <v>-0.3980776759952091</v>
       </c>
       <c r="H4">
-        <v>-0.5446997369941869</v>
+        <v>-0.5446996008927247</v>
       </c>
       <c r="I4">
         <v>-0.1930978351050253</v>
@@ -629,34 +629,34 @@
         <v>0.09518851790021113</v>
       </c>
       <c r="L4">
-        <v>-0.8818787683356796</v>
+        <v>-0.9544504876729963</v>
       </c>
       <c r="M4">
-        <v>0.2587002816785027</v>
+        <v>0.2587122862649203</v>
       </c>
       <c r="N4">
         <v>0.1174631627721834</v>
       </c>
       <c r="O4">
-        <v>0.8003812097110323</v>
+        <v>0.5168840668952074</v>
       </c>
       <c r="P4">
-        <v>-0.009062522325665347</v>
+        <v>-0.01146025942266637</v>
       </c>
       <c r="Q4">
-        <v>-0.09017964653834516</v>
+        <v>-0.07580251985567225</v>
       </c>
       <c r="R4">
-        <v>-0.1446691934364603</v>
+        <v>-0.1287225885838751</v>
       </c>
       <c r="S4">
-        <v>-0.2750983622490709</v>
+        <v>-0.2750935403687028</v>
       </c>
       <c r="T4">
-        <v>-0.0005931030655515487</v>
+        <v>-0.0005930912538889534</v>
       </c>
       <c r="U4">
-        <v>95.48392562753968</v>
+        <v>90.60571001116544</v>
       </c>
     </row>
     <row r="5">
@@ -664,25 +664,25 @@
         <v>18901</v>
       </c>
       <c r="B5">
-        <v>-1.920394767522182</v>
+        <v>-1.977457803601125</v>
       </c>
       <c r="C5">
-        <v>0.1135882718712223</v>
+        <v>0.4035986639615786</v>
       </c>
       <c r="D5">
-        <v>0.02040120728952869</v>
+        <v>0.01874972978957949</v>
       </c>
       <c r="E5">
-        <v>-0.04794600236130493</v>
+        <v>-0.04892547388274048</v>
       </c>
       <c r="F5">
-        <v>0.1729710957344689</v>
+        <v>0.185684801146213</v>
       </c>
       <c r="G5">
-        <v>-1.151196054676963</v>
+        <v>-1.151179208126007</v>
       </c>
       <c r="H5">
-        <v>-0.01987424095391075</v>
+        <v>-0.01987410679480177</v>
       </c>
       <c r="I5">
         <v>-1.229273947993691</v>
@@ -694,34 +694,34 @@
         <v>0.2073325052435737</v>
       </c>
       <c r="L5">
-        <v>-0.5422684496731369</v>
+        <v>-0.613168021358185</v>
       </c>
       <c r="M5">
-        <v>-0.1256613256253008</v>
+        <v>-0.1256501497642634</v>
       </c>
       <c r="N5">
         <v>0.009334905769353924</v>
       </c>
       <c r="O5">
-        <v>1.054730839652647</v>
+        <v>0.7648022389816178</v>
       </c>
       <c r="P5">
-        <v>-0.008544872986447001</v>
+        <v>-0.01091496460839896</v>
       </c>
       <c r="Q5">
-        <v>-0.1080990734328255</v>
+        <v>-0.09380149606518848</v>
       </c>
       <c r="R5">
-        <v>-0.02508311597892837</v>
+        <v>-0.009508270319279486</v>
       </c>
       <c r="S5">
-        <v>-0.09445044268039039</v>
+        <v>-0.09444598668141728</v>
       </c>
       <c r="T5">
-        <v>-0.0005559001827883187</v>
+        <v>-0.0005558891865327883</v>
       </c>
       <c r="U5">
-        <v>85.63750470828145</v>
+        <v>79.61967596769399</v>
       </c>
     </row>
     <row r="6">
@@ -729,25 +729,25 @@
         <v>18993</v>
       </c>
       <c r="B6">
-        <v>-2.932960647951878</v>
+        <v>-2.915423553590154</v>
       </c>
       <c r="C6">
-        <v>-0.4772625745322012</v>
+        <v>-0.1904579598069528</v>
       </c>
       <c r="D6">
-        <v>-0.005676383271831879</v>
+        <v>-0.00746788542680047</v>
       </c>
       <c r="E6">
-        <v>-0.1000995171895795</v>
+        <v>-0.1010865453312022</v>
       </c>
       <c r="F6">
-        <v>0.1083847531709142</v>
+        <v>0.1202655821094736</v>
       </c>
       <c r="G6">
-        <v>-1.003565415135135</v>
+        <v>-1.00355543981096</v>
       </c>
       <c r="H6">
-        <v>-0.01961350988632016</v>
+        <v>-0.01961337748725061</v>
       </c>
       <c r="I6">
         <v>-0.129866547930186</v>
@@ -759,34 +759,34 @@
         <v>0.1233769030749706</v>
       </c>
       <c r="L6">
-        <v>-1.282637667174381</v>
+        <v>-1.358995296414835</v>
       </c>
       <c r="M6">
-        <v>-0.09590377157126641</v>
+        <v>-0.09589339110593928</v>
       </c>
       <c r="N6">
         <v>0.00911149418378661</v>
       </c>
       <c r="O6">
-        <v>0.3499688765857412</v>
+        <v>0.1700774672895362</v>
       </c>
       <c r="P6">
-        <v>-0.005928872985528035</v>
+        <v>-0.008277557928211875</v>
       </c>
       <c r="Q6">
-        <v>-0.08847238947057676</v>
+        <v>-0.07426686870528368</v>
       </c>
       <c r="R6">
-        <v>-0.0169720281518589</v>
+        <v>-0.02437680931967038</v>
       </c>
       <c r="S6">
-        <v>-0.1247454154703833</v>
+        <v>-0.1247427769460709</v>
       </c>
       <c r="T6">
-        <v>-0.0005212154470036434</v>
+        <v>-0.0005212052333611436</v>
       </c>
       <c r="U6">
-        <v>76.80645893496552</v>
+        <v>69.96570967127116</v>
       </c>
     </row>
     <row r="7">
@@ -794,25 +794,25 @@
         <v>19083</v>
       </c>
       <c r="B7">
-        <v>-4.228716493053904</v>
+        <v>-4.071347693592523</v>
       </c>
       <c r="C7">
-        <v>0.2150269614969248</v>
+        <v>0.5080510548066383</v>
       </c>
       <c r="D7">
-        <v>-0.002611722619979046</v>
+        <v>-0.004402475905378957</v>
       </c>
       <c r="E7">
-        <v>-0.3776262331537193</v>
+        <v>-0.3785998490014228</v>
       </c>
       <c r="F7">
-        <v>0.08451287846516727</v>
+        <v>0.08516795139970817</v>
       </c>
       <c r="G7">
-        <v>-1.571293613444645</v>
+        <v>-1.571288139550568</v>
       </c>
       <c r="H7">
-        <v>-1.070541514024278</v>
+        <v>-1.070541383248651</v>
       </c>
       <c r="I7">
         <v>0.04768384931029133</v>
@@ -824,34 +824,34 @@
         <v>0.120749455044037</v>
       </c>
       <c r="L7">
-        <v>-0.2584445886237388</v>
+        <v>-0.2594229309876859</v>
       </c>
       <c r="M7">
-        <v>-0.1119047657177603</v>
+        <v>-0.1118945125350052</v>
       </c>
       <c r="N7">
         <v>0.03025984481711146</v>
       </c>
       <c r="O7">
-        <v>-0.7683170331204938</v>
+        <v>-0.8977557121825147</v>
       </c>
       <c r="P7">
-        <v>-0.006768255232493866</v>
+        <v>-0.009116090066111231</v>
       </c>
       <c r="Q7">
-        <v>-0.1749021704196194</v>
+        <v>-0.1608560424120881</v>
       </c>
       <c r="R7">
-        <v>0.003411051499899554</v>
+        <v>0.00364967395936336</v>
       </c>
       <c r="S7">
-        <v>-0.2494219499721878</v>
+        <v>-0.2494205020991811</v>
       </c>
       <c r="T7">
-        <v>-0.0004120960265682203</v>
+        <v>-0.0004120859381627544</v>
       </c>
       <c r="U7">
-        <v>68.88608156232357</v>
+        <v>61.48229655934362</v>
       </c>
     </row>
     <row r="8">
@@ -859,25 +859,25 @@
         <v>19174</v>
       </c>
       <c r="B8">
-        <v>-2.49641774278661</v>
+        <v>-2.390447039980924</v>
       </c>
       <c r="C8">
-        <v>-0.5323367705157571</v>
+        <v>-0.2311069021039808</v>
       </c>
       <c r="D8">
-        <v>-0.01801811973480771</v>
+        <v>-0.0198085064510066</v>
       </c>
       <c r="E8">
-        <v>-0.2164722216848113</v>
+        <v>-0.2174236388824277</v>
       </c>
       <c r="F8">
-        <v>-0.1309825800484397</v>
+        <v>-0.1262466638700369</v>
       </c>
       <c r="G8">
-        <v>-1.214109924522908</v>
+        <v>-1.214104505493966</v>
       </c>
       <c r="H8">
-        <v>-0.02023821146299887</v>
+        <v>-0.0202380819981435</v>
       </c>
       <c r="I8">
         <v>-0.03764350058681789</v>
@@ -889,34 +889,34 @@
         <v>0.07896646559953437</v>
       </c>
       <c r="L8">
-        <v>-0.1740333262756951</v>
+        <v>-0.1750117273998242</v>
       </c>
       <c r="M8">
-        <v>-0.1008266962686189</v>
+        <v>-0.1008165458540672</v>
       </c>
       <c r="N8">
         <v>0.02967687289884764</v>
       </c>
       <c r="O8">
-        <v>-0.01266395216550588</v>
+        <v>-0.2029263735452136</v>
       </c>
       <c r="P8">
-        <v>-0.006882374781343652</v>
+        <v>-0.009229836825184043</v>
       </c>
       <c r="Q8">
-        <v>-0.1045100121843547</v>
+        <v>-0.09059326565450292</v>
       </c>
       <c r="R8">
-        <v>0.2316250763062107</v>
+        <v>0.2242743687648348</v>
       </c>
       <c r="S8">
-        <v>-0.08880164187035662</v>
+        <v>-0.08880020850945912</v>
       </c>
       <c r="T8">
-        <v>-0.0004047555472450113</v>
+        <v>-0.000404745559956177</v>
       </c>
       <c r="U8">
-        <v>61.78246333461468</v>
+        <v>54.02750587354114</v>
       </c>
     </row>
     <row r="9">
@@ -924,25 +924,25 @@
         <v>19266</v>
       </c>
       <c r="B9">
-        <v>-1.530788705507863</v>
+        <v>-1.533187613376982</v>
       </c>
       <c r="C9">
-        <v>-0.3847953591568156</v>
+        <v>-0.07614960496819956</v>
       </c>
       <c r="D9">
-        <v>-0.004276280828524607</v>
+        <v>-0.006066060551935232</v>
       </c>
       <c r="E9">
-        <v>-0.1353802671718064</v>
+        <v>-0.1363223638393928</v>
       </c>
       <c r="F9">
-        <v>-0.140615827106068</v>
+        <v>-0.1369252733197596</v>
       </c>
       <c r="G9">
-        <v>-0.5070606313039595</v>
+        <v>-0.5070563422308743</v>
       </c>
       <c r="H9">
-        <v>-0.009779076536927131</v>
+        <v>-0.009778948450273451</v>
       </c>
       <c r="I9">
         <v>-0.04297788668108292</v>
@@ -954,34 +954,34 @@
         <v>-0.153907848402334</v>
       </c>
       <c r="L9">
-        <v>-0.1004862969619823</v>
+        <v>-0.1013746998527388</v>
       </c>
       <c r="M9">
-        <v>-0.05779366481836955</v>
+        <v>-0.05778362245876755</v>
       </c>
       <c r="N9">
         <v>-0.03746849446758858</v>
       </c>
       <c r="O9">
-        <v>0.1986544156159613</v>
+        <v>-0.1096774785255282</v>
       </c>
       <c r="P9">
-        <v>-0.006975407123718861</v>
+        <v>-0.009322185349049638</v>
       </c>
       <c r="Q9">
-        <v>-0.08521817425091263</v>
+        <v>-0.07142040851118286</v>
       </c>
       <c r="R9">
-        <v>0.2391587333885119</v>
+        <v>0.2312488531355485</v>
       </c>
       <c r="S9">
-        <v>-0.04382273454475905</v>
+        <v>-0.04382160006297026</v>
       </c>
       <c r="T9">
-        <v>-0.0003973180464540381</v>
+        <v>-0.0003973081654836195</v>
       </c>
       <c r="U9">
-        <v>55.41137903510409</v>
+        <v>47.47661610359803</v>
       </c>
     </row>
     <row r="10">
@@ -989,19 +989,19 @@
         <v>19358</v>
       </c>
       <c r="B10">
-        <v>-1.813751366855852</v>
+        <v>-1.828227589833045</v>
       </c>
       <c r="C10">
-        <v>-0.06799824807248937</v>
+        <v>0.2506951267791365</v>
       </c>
       <c r="D10">
-        <v>-0.04464383051636706</v>
+        <v>-0.04656453270702789</v>
       </c>
       <c r="E10">
-        <v>-0.2123341750090084</v>
+        <v>-0.2123797480567672</v>
       </c>
       <c r="F10">
-        <v>-0.08789815745229006</v>
+        <v>-0.0852682713640404</v>
       </c>
       <c r="G10">
         <v>-0.4059551641669498</v>
@@ -1019,34 +1019,34 @@
         <v>-0.08555960145610871</v>
       </c>
       <c r="L10">
-        <v>-0.03314261475954091</v>
+        <v>-0.03452980282632658</v>
       </c>
       <c r="M10">
-        <v>-0.04399478741120702</v>
+        <v>-0.04398547056956979</v>
       </c>
       <c r="N10">
         <v>-0.03676149986761125</v>
       </c>
       <c r="O10">
-        <v>-0.1134040381460925</v>
+        <v>-0.4322094075933356</v>
       </c>
       <c r="P10">
-        <v>-0.01212392773295302</v>
+        <v>-0.01445770656648524</v>
       </c>
       <c r="Q10">
-        <v>-0.05214241114231637</v>
+        <v>-0.05179980106843288</v>
       </c>
       <c r="R10">
-        <v>0.2340846477532237</v>
+        <v>0.2256778137285729</v>
       </c>
       <c r="S10">
         <v>-0.04339948919234162</v>
       </c>
       <c r="T10">
-        <v>-0.0004623422212883908</v>
+        <v>-0.0004623330541762516</v>
       </c>
       <c r="U10">
-        <v>49.69728885594171</v>
+        <v>41.72002834860248</v>
       </c>
     </row>
     <row r="11">
@@ -1054,19 +1054,19 @@
         <v>19448</v>
       </c>
       <c r="B11">
-        <v>-2.859945277860112</v>
+        <v>-2.873482447390477</v>
       </c>
       <c r="C11">
-        <v>-0.7531065325891689</v>
+        <v>-0.425787936974361</v>
       </c>
       <c r="D11">
-        <v>-0.05015193571926935</v>
+        <v>-0.0520654004080285</v>
       </c>
       <c r="E11">
-        <v>-0.1921519208542867</v>
+        <v>-0.1921928209197571</v>
       </c>
       <c r="F11">
-        <v>-0.08519322346457045</v>
+        <v>-0.08362653240064193</v>
       </c>
       <c r="G11">
         <v>-0.3681255925799387</v>
@@ -1084,34 +1084,34 @@
         <v>-0.0840129776337472</v>
       </c>
       <c r="L11">
-        <v>0.002113645847216034</v>
+        <v>0.0007849193148114629</v>
       </c>
       <c r="M11">
-        <v>-0.6274595173145769</v>
+        <v>-0.6274502887768539</v>
       </c>
       <c r="N11">
         <v>0.001400928237088005</v>
       </c>
       <c r="O11">
-        <v>0.5430839066339856</v>
+        <v>0.215623086063131</v>
       </c>
       <c r="P11">
-        <v>-0.01704732049859965</v>
+        <v>-0.01937243136372318</v>
       </c>
       <c r="Q11">
-        <v>-0.04496028219489964</v>
+        <v>-0.04460694156086416</v>
       </c>
       <c r="R11">
-        <v>0.2320203032879347</v>
+        <v>0.2231157804960929</v>
       </c>
       <c r="S11">
         <v>-0.02666313177893942</v>
       </c>
       <c r="T11">
-        <v>-0.0003629126832957618</v>
+        <v>-0.0003629036030684185</v>
       </c>
       <c r="U11">
-        <v>44.5724427480181</v>
+        <v>36.66143268530643</v>
       </c>
     </row>
     <row r="12">
@@ -1119,19 +1119,19 @@
         <v>19539</v>
       </c>
       <c r="B12">
-        <v>-1.610479335950463</v>
+        <v>-1.62352982343089</v>
       </c>
       <c r="C12">
-        <v>-0.2143396882021206</v>
+        <v>0.1221262292653472</v>
       </c>
       <c r="D12">
-        <v>-0.03259225168956668</v>
+        <v>-0.03450180076491357</v>
       </c>
       <c r="E12">
-        <v>-0.1172930621249598</v>
+        <v>-0.1173199913948655</v>
       </c>
       <c r="F12">
-        <v>0.1341963996566968</v>
+        <v>0.1282504421313048</v>
       </c>
       <c r="G12">
         <v>-0.2461738751116574</v>
@@ -1149,34 +1149,34 @@
         <v>-0.04634064169644127</v>
       </c>
       <c r="L12">
-        <v>0.01704828947457749</v>
+        <v>0.01578566532162747</v>
       </c>
       <c r="M12">
-        <v>-0.6770871288065228</v>
+        <v>-0.6770779971212789</v>
       </c>
       <c r="N12">
         <v>0.001351539573827283</v>
       </c>
       <c r="O12">
-        <v>0.02715689978863638</v>
+        <v>-0.3094646270342488</v>
       </c>
       <c r="P12">
-        <v>0.002161696201694208</v>
+        <v>-0.0001588414535222429</v>
       </c>
       <c r="Q12">
-        <v>-0.03687206381466829</v>
+        <v>-0.03649963015482149</v>
       </c>
       <c r="R12">
-        <v>0.01159239792956379</v>
+        <v>0.008691689017509267</v>
       </c>
       <c r="S12">
         <v>-0.01908936467914473</v>
       </c>
       <c r="T12">
-        <v>-0.0003545983346501806</v>
+        <v>-0.0003545893497188155</v>
       </c>
       <c r="U12">
-        <v>39.97607713137506</v>
+        <v>32.21619686613366</v>
       </c>
     </row>
     <row r="13">
@@ -1184,19 +1184,19 @@
         <v>19631</v>
       </c>
       <c r="B13">
-        <v>-0.9506205965702728</v>
+        <v>-0.9600058268982357</v>
       </c>
       <c r="C13">
-        <v>-0.2858225751525794</v>
+        <v>0.05938176625592118</v>
       </c>
       <c r="D13">
-        <v>-0.01834095619707955</v>
+        <v>-0.02024870216377245</v>
       </c>
       <c r="E13">
-        <v>-0.1188613700837592</v>
+        <v>-0.1188886558557919</v>
       </c>
       <c r="F13">
-        <v>0.1352872461714764</v>
+        <v>0.1307752570887051</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1214,34 +1214,34 @@
         <v>-0.04527502581684945</v>
       </c>
       <c r="L13">
-        <v>0.05049330041066355</v>
+        <v>0.04928951217176075</v>
       </c>
       <c r="M13">
-        <v>-0.3156654335032029</v>
+        <v>-0.3156564015004467</v>
       </c>
       <c r="N13">
         <v>-0.006132218496151376</v>
       </c>
       <c r="O13">
-        <v>-0.1256246014787114</v>
+        <v>-0.4710136698671549</v>
       </c>
       <c r="P13">
-        <v>0.004356497814520572</v>
+        <v>0.002037935546142287</v>
       </c>
       <c r="Q13">
-        <v>-0.03742183440772982</v>
+        <v>-0.03705412872113237</v>
       </c>
       <c r="R13">
-        <v>-0.002297492392900561</v>
+        <v>-0.004443922222636757</v>
       </c>
       <c r="S13">
         <v>-0.01725272749018296</v>
       </c>
       <c r="T13">
-        <v>-0.0003480368556947193</v>
+        <v>-0.0003480279688438602</v>
       </c>
       <c r="U13">
-        <v>35.8536944418355</v>
+        <v>28.30995038918526</v>
       </c>
     </row>
   </sheetData>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -534,28 +534,28 @@
         <v>18718</v>
       </c>
       <c r="B3">
-        <v>-0.6152339580978914</v>
+        <v>-0.7206153188696172</v>
       </c>
       <c r="C3">
-        <v>2.475333594421048</v>
+        <v>2.409567028643148</v>
       </c>
       <c r="D3">
         <v>0.0005552367377877178</v>
       </c>
       <c r="E3">
-        <v>-0.01472512092925327</v>
+        <v>-0.08389819461949688</v>
       </c>
       <c r="F3">
-        <v>0.1498852190246123</v>
+        <v>0.1955813544326828</v>
       </c>
       <c r="G3">
-        <v>0.2833788699215964</v>
+        <v>0.1109928136382535</v>
       </c>
       <c r="H3">
         <v>-1.528861199310314</v>
       </c>
       <c r="I3">
-        <v>-0.4273791763175387</v>
+        <v>-0.3174885523799099</v>
       </c>
       <c r="J3">
         <v>0.3461015796749995</v>
@@ -567,31 +567,31 @@
         <v>-0.7540890628075889</v>
       </c>
       <c r="M3">
-        <v>0.4386211562867122</v>
+        <v>0.4337284699326565</v>
       </c>
       <c r="N3">
         <v>0.1187125082156698</v>
       </c>
       <c r="O3">
-        <v>-1.349139135801224</v>
+        <v>-1.283372570023325</v>
       </c>
       <c r="P3">
         <v>-0.01307342158732411</v>
       </c>
       <c r="Q3">
-        <v>-0.02574089963771766</v>
+        <v>-0.03384327746658385</v>
       </c>
       <c r="R3">
-        <v>0.03159998937700942</v>
+        <v>0.0458030888199555</v>
       </c>
       <c r="S3">
-        <v>-0.2903750140616631</v>
+        <v>-0.2625040317768828</v>
       </c>
       <c r="T3">
         <v>-0.0008288217271714355</v>
       </c>
       <c r="U3">
-        <v>103.1076123690632</v>
+        <v>91.22185479547427</v>
       </c>
     </row>
     <row r="4">
@@ -599,28 +599,28 @@
         <v>18809</v>
       </c>
       <c r="B4">
-        <v>-0.6376128415851348</v>
+        <v>-0.8086759716977386</v>
       </c>
       <c r="C4">
-        <v>0.6989307717617423</v>
+        <v>0.7653974816913818</v>
       </c>
       <c r="D4">
         <v>0.008082360060041389</v>
       </c>
       <c r="E4">
-        <v>-0.08286087491903898</v>
+        <v>-0.1709594789912585</v>
       </c>
       <c r="F4">
-        <v>0.2847124046953079</v>
+        <v>0.3255395164981985</v>
       </c>
       <c r="G4">
-        <v>-0.3980776759952091</v>
+        <v>-0.4663414813049536</v>
       </c>
       <c r="H4">
         <v>-0.5446996008927247</v>
       </c>
       <c r="I4">
-        <v>-0.1930978351050253</v>
+        <v>-0.2255658938368476</v>
       </c>
       <c r="J4">
         <v>0.2905754397555447</v>
@@ -632,31 +632,31 @@
         <v>-0.9544504876729963</v>
       </c>
       <c r="M4">
-        <v>0.2587122862649203</v>
+        <v>0.2594275870409106</v>
       </c>
       <c r="N4">
         <v>0.1174631627721834</v>
       </c>
       <c r="O4">
-        <v>0.5168840668952074</v>
+        <v>0.4504173569655679</v>
       </c>
       <c r="P4">
         <v>-0.01146025942266637</v>
       </c>
       <c r="Q4">
-        <v>-0.07580251985567225</v>
+        <v>-0.08982317380619917</v>
       </c>
       <c r="R4">
-        <v>-0.1287225885838751</v>
+        <v>-0.1160713601333264</v>
       </c>
       <c r="S4">
-        <v>-0.2750935403687028</v>
+        <v>-0.2553971268594215</v>
       </c>
       <c r="T4">
         <v>-0.0005930912538889534</v>
       </c>
       <c r="U4">
-        <v>90.60571001116544</v>
+        <v>80.16111257328771</v>
       </c>
     </row>
     <row r="5">
@@ -664,7 +664,7 @@
         <v>18901</v>
       </c>
       <c r="B5">
-        <v>-1.977457803601125</v>
+        <v>-1.982955482326246</v>
       </c>
       <c r="C5">
         <v>0.4035986639615786</v>
@@ -673,19 +673,19 @@
         <v>0.01874972978957949</v>
       </c>
       <c r="E5">
-        <v>-0.04892547388274048</v>
+        <v>-0.1017855743676898</v>
       </c>
       <c r="F5">
-        <v>0.185684801146213</v>
+        <v>0.2259728242860238</v>
       </c>
       <c r="G5">
-        <v>-1.151179208126007</v>
+        <v>-1.12625835812015</v>
       </c>
       <c r="H5">
         <v>-0.01987410679480177</v>
       </c>
       <c r="I5">
-        <v>-1.229273947993691</v>
+        <v>-1.230041264895453</v>
       </c>
       <c r="J5">
         <v>0.1144006546152204</v>
@@ -697,7 +697,7 @@
         <v>-0.613168021358185</v>
       </c>
       <c r="M5">
-        <v>-0.1256501497642634</v>
+        <v>-0.1253897551835616</v>
       </c>
       <c r="N5">
         <v>0.009334905769353924</v>
@@ -709,19 +709,19 @@
         <v>-0.01091496460839896</v>
       </c>
       <c r="Q5">
-        <v>-0.09380149606518848</v>
+        <v>-0.1036235049455052</v>
       </c>
       <c r="R5">
-        <v>-0.009508270319279486</v>
+        <v>0.002975919620416283</v>
       </c>
       <c r="S5">
-        <v>-0.09444598668141728</v>
+        <v>-0.07840493867293094</v>
       </c>
       <c r="T5">
         <v>-0.0005558891865327883</v>
       </c>
       <c r="U5">
-        <v>79.61967596769399</v>
+        <v>70.44149654043325</v>
       </c>
     </row>
     <row r="6">
@@ -729,28 +729,28 @@
         <v>18993</v>
       </c>
       <c r="B6">
-        <v>-2.915423553590154</v>
+        <v>-2.96685063538928</v>
       </c>
       <c r="C6">
-        <v>-0.1904579598069528</v>
+        <v>-0.1272219124001331</v>
       </c>
       <c r="D6">
         <v>-0.00746788542680047</v>
       </c>
       <c r="E6">
-        <v>-0.1010865453312022</v>
+        <v>-0.1452023652004305</v>
       </c>
       <c r="F6">
-        <v>0.1202655821094736</v>
+        <v>0.1433869326357206</v>
       </c>
       <c r="G6">
-        <v>-1.00355543981096</v>
+        <v>-0.9884884709861926</v>
       </c>
       <c r="H6">
         <v>-0.01961337748725061</v>
       </c>
       <c r="I6">
-        <v>-0.129866547930186</v>
+        <v>-0.1687796404622677</v>
       </c>
       <c r="J6">
         <v>0.1174426871862197</v>
@@ -762,31 +762,31 @@
         <v>-1.358995296414835</v>
       </c>
       <c r="M6">
-        <v>-0.09589339110593928</v>
+        <v>-0.09093412906311607</v>
       </c>
       <c r="N6">
         <v>0.00911149418378661</v>
       </c>
       <c r="O6">
-        <v>0.1700774672895362</v>
+        <v>0.1068414198827165</v>
       </c>
       <c r="P6">
         <v>-0.008277557928211875</v>
       </c>
       <c r="Q6">
-        <v>-0.07426686870528368</v>
+        <v>-0.08108024744478393</v>
       </c>
       <c r="R6">
-        <v>-0.02437680931967038</v>
+        <v>-0.01127530284477531</v>
       </c>
       <c r="S6">
-        <v>-0.1247427769460709</v>
+        <v>-0.1117761417119843</v>
       </c>
       <c r="T6">
         <v>-0.0005212052333611436</v>
       </c>
       <c r="U6">
-        <v>69.96570967127116</v>
+        <v>61.90039378906238</v>
       </c>
     </row>
     <row r="7">
@@ -794,28 +794,28 @@
         <v>19083</v>
       </c>
       <c r="B7">
-        <v>-4.071347693592523</v>
+        <v>-4.062755695228105</v>
       </c>
       <c r="C7">
-        <v>0.5080510548066383</v>
+        <v>0.4448082210619547</v>
       </c>
       <c r="D7">
         <v>-0.004402475905378957</v>
       </c>
       <c r="E7">
-        <v>-0.3785998490014228</v>
+        <v>-0.4220948827164469</v>
       </c>
       <c r="F7">
-        <v>0.08516795139970817</v>
+        <v>0.06429195014553693</v>
       </c>
       <c r="G7">
-        <v>-1.571288139550568</v>
+        <v>-1.515143557623248</v>
       </c>
       <c r="H7">
         <v>-1.070541383248651</v>
       </c>
       <c r="I7">
-        <v>0.04768384931029133</v>
+        <v>0.04730986669618352</v>
       </c>
       <c r="J7">
         <v>0.02259622780948149</v>
@@ -827,31 +827,31 @@
         <v>-0.2594229309876859</v>
       </c>
       <c r="M7">
-        <v>-0.1118945125350052</v>
+        <v>-0.1123218725347208</v>
       </c>
       <c r="N7">
         <v>0.03025984481711146</v>
       </c>
       <c r="O7">
-        <v>-0.8977557121825147</v>
+        <v>-0.8345128784378312</v>
       </c>
       <c r="P7">
         <v>-0.009116090066111231</v>
       </c>
       <c r="Q7">
-        <v>-0.1608560424120881</v>
+        <v>-0.1675736583491993</v>
       </c>
       <c r="R7">
-        <v>0.00364967395936336</v>
+        <v>0.002958684266288797</v>
       </c>
       <c r="S7">
-        <v>-0.2494205020991811</v>
+        <v>-0.2446570364249776</v>
       </c>
       <c r="T7">
         <v>-0.0004120859381627544</v>
       </c>
       <c r="U7">
-        <v>61.48229655934362</v>
+        <v>54.3949083909884</v>
       </c>
     </row>
     <row r="8">
@@ -859,7 +859,7 @@
         <v>19174</v>
       </c>
       <c r="B8">
-        <v>-2.390447039980924</v>
+        <v>-2.376033144937566</v>
       </c>
       <c r="C8">
         <v>-0.2311069021039808</v>
@@ -868,19 +868,19 @@
         <v>-0.0198085064510066</v>
       </c>
       <c r="E8">
-        <v>-0.2174236388824277</v>
+        <v>-0.259972227689619</v>
       </c>
       <c r="F8">
-        <v>-0.1262466638700369</v>
+        <v>-0.1462177152908686</v>
       </c>
       <c r="G8">
-        <v>-1.214104505493966</v>
+        <v>-1.152652785544572</v>
       </c>
       <c r="H8">
         <v>-0.0202380819981435</v>
       </c>
       <c r="I8">
-        <v>-0.03764350058681789</v>
+        <v>-0.03801373475303215</v>
       </c>
       <c r="J8">
         <v>-0.03630123126129186</v>
@@ -892,7 +892,7 @@
         <v>-0.1750117273998242</v>
       </c>
       <c r="M8">
-        <v>-0.1008165458540672</v>
+        <v>-0.1010290994085645</v>
       </c>
       <c r="N8">
         <v>0.02967687289884764</v>
@@ -904,19 +904,19 @@
         <v>-0.009229836825184043</v>
       </c>
       <c r="Q8">
-        <v>-0.09059326565450292</v>
+        <v>-0.09724413578067237</v>
       </c>
       <c r="R8">
-        <v>0.2242743687648348</v>
+        <v>0.2291421962037284</v>
       </c>
       <c r="S8">
-        <v>-0.08880020850945912</v>
+        <v>-0.08855613509647298</v>
       </c>
       <c r="T8">
         <v>-0.000404745559956177</v>
       </c>
       <c r="U8">
-        <v>54.02750587354114</v>
+        <v>47.79947069394625</v>
       </c>
     </row>
     <row r="9">
@@ -924,7 +924,7 @@
         <v>19266</v>
       </c>
       <c r="B9">
-        <v>-1.533187613376982</v>
+        <v>-1.561415372738613</v>
       </c>
       <c r="C9">
         <v>-0.07614960496819956</v>
@@ -933,19 +933,19 @@
         <v>-0.006066060551935232</v>
       </c>
       <c r="E9">
-        <v>-0.1363223638393928</v>
+        <v>-0.1784506885115719</v>
       </c>
       <c r="F9">
-        <v>-0.1369252733197596</v>
+        <v>-0.1565837093905209</v>
       </c>
       <c r="G9">
-        <v>-0.5070563422308743</v>
+        <v>-0.4882628537639145</v>
       </c>
       <c r="H9">
         <v>-0.009778948450273451</v>
       </c>
       <c r="I9">
-        <v>-0.04297788668108292</v>
+        <v>-0.04334417956647148</v>
       </c>
       <c r="J9">
         <v>-0.1310173574771477</v>
@@ -957,7 +957,7 @@
         <v>-0.1013746998527388</v>
       </c>
       <c r="M9">
-        <v>-0.05778362245876755</v>
+        <v>-0.05799198549793012</v>
       </c>
       <c r="N9">
         <v>-0.03746849446758858</v>
@@ -969,19 +969,19 @@
         <v>-0.009322185349049638</v>
       </c>
       <c r="Q9">
-        <v>-0.07142040851118286</v>
+        <v>-0.07799958575632389</v>
       </c>
       <c r="R9">
-        <v>0.2312488531355485</v>
+        <v>0.2360494829879638</v>
       </c>
       <c r="S9">
-        <v>-0.04382160006297026</v>
+        <v>-0.04203091890836298</v>
       </c>
       <c r="T9">
         <v>-0.0003973081654836195</v>
       </c>
       <c r="U9">
-        <v>47.47661610359803</v>
+        <v>42.00373649310066</v>
       </c>
     </row>
     <row r="10">
@@ -989,7 +989,7 @@
         <v>19358</v>
       </c>
       <c r="B10">
-        <v>-1.828227589833045</v>
+        <v>-1.855205625736031</v>
       </c>
       <c r="C10">
         <v>0.2506951267791365</v>
@@ -998,19 +998,19 @@
         <v>-0.04656453270702789</v>
       </c>
       <c r="E10">
-        <v>-0.2123797480567672</v>
+        <v>-0.2554212318478474</v>
       </c>
       <c r="F10">
-        <v>-0.0852682713640404</v>
+        <v>-0.08865145216321398</v>
       </c>
       <c r="G10">
-        <v>-0.4059551641669498</v>
+        <v>-0.3973385241768225</v>
       </c>
       <c r="H10">
         <v>-0.5583049254454605</v>
       </c>
       <c r="I10">
-        <v>-0.04225645280979947</v>
+        <v>-0.04261893790334412</v>
       </c>
       <c r="J10">
         <v>-0.0951856508425343</v>
@@ -1022,7 +1022,7 @@
         <v>-0.03452980282632658</v>
       </c>
       <c r="M10">
-        <v>-0.04398547056956979</v>
+        <v>-0.04418975981108626</v>
       </c>
       <c r="N10">
         <v>-0.03676149986761125</v>
@@ -1034,19 +1034,19 @@
         <v>-0.01445770656648524</v>
       </c>
       <c r="Q10">
-        <v>-0.05179980106843288</v>
+        <v>-0.05830881315209426</v>
       </c>
       <c r="R10">
-        <v>0.2256778137285729</v>
+        <v>0.229680367299475</v>
       </c>
       <c r="S10">
-        <v>-0.04339948919234162</v>
+        <v>-0.04281294407447816</v>
       </c>
       <c r="T10">
         <v>-0.0004623330541762516</v>
       </c>
       <c r="U10">
-        <v>41.72002834860248</v>
+        <v>36.91074093013512</v>
       </c>
     </row>
     <row r="11">
@@ -1054,7 +1054,7 @@
         <v>19448</v>
       </c>
       <c r="B11">
-        <v>-2.873482447390477</v>
+        <v>-2.842451457864592</v>
       </c>
       <c r="C11">
         <v>-0.425787936974361</v>
@@ -1063,19 +1063,19 @@
         <v>-0.0520654004080285</v>
       </c>
       <c r="E11">
-        <v>-0.1921928209197571</v>
+        <v>-0.2029862502038385</v>
       </c>
       <c r="F11">
-        <v>-0.08362653240064193</v>
+        <v>-0.08699914127200145</v>
       </c>
       <c r="G11">
-        <v>-0.3681255925799387</v>
+        <v>-0.3314105030130856</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-1.13912144934142</v>
+        <v>-1.139480498844469</v>
       </c>
       <c r="J11">
         <v>-0.1504479749415918</v>
@@ -1087,7 +1087,7 @@
         <v>0.0007849193148114629</v>
       </c>
       <c r="M11">
-        <v>-0.6274502887768539</v>
+        <v>-0.6272429353139136</v>
       </c>
       <c r="N11">
         <v>0.001400928237088005</v>
@@ -1099,19 +1099,19 @@
         <v>-0.01937243136372318</v>
       </c>
       <c r="Q11">
-        <v>-0.04460694156086416</v>
+        <v>-0.04732496806933741</v>
       </c>
       <c r="R11">
-        <v>0.2231157804960929</v>
+        <v>0.2270723223731747</v>
       </c>
       <c r="S11">
-        <v>-0.02666313177893942</v>
+        <v>-0.03086133644712029</v>
       </c>
       <c r="T11">
         <v>-0.0003629036030684185</v>
       </c>
       <c r="U11">
-        <v>36.66143268530643</v>
+        <v>32.4352762339449</v>
       </c>
     </row>
     <row r="12">
@@ -1119,7 +1119,7 @@
         <v>19539</v>
       </c>
       <c r="B12">
-        <v>-1.62352982343089</v>
+        <v>-1.63584288915144</v>
       </c>
       <c r="C12">
         <v>0.1221262292653472</v>
@@ -1128,19 +1128,19 @@
         <v>-0.03450180076491357</v>
       </c>
       <c r="E12">
-        <v>-0.1173199913948655</v>
+        <v>-0.1187506484967223</v>
       </c>
       <c r="F12">
-        <v>0.1282504421313048</v>
+        <v>0.1288010562445367</v>
       </c>
       <c r="G12">
-        <v>-0.2461738751116574</v>
+        <v>-0.2285276660829325</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.1915608794728257</v>
+        <v>-0.2277195284183024</v>
       </c>
       <c r="J12">
         <v>-0.1337095920273572</v>
@@ -1152,7 +1152,7 @@
         <v>0.01578566532162747</v>
       </c>
       <c r="M12">
-        <v>-0.6770779971212789</v>
+        <v>-0.6770777161883793</v>
       </c>
       <c r="N12">
         <v>0.001351539573827283</v>
@@ -1164,19 +1164,19 @@
         <v>-0.0001588414535222429</v>
       </c>
       <c r="Q12">
-        <v>-0.03649963015482149</v>
+        <v>-0.03649303529897993</v>
       </c>
       <c r="R12">
-        <v>0.008691689017509267</v>
+        <v>0.008685228003425005</v>
       </c>
       <c r="S12">
-        <v>-0.01908936467914473</v>
+        <v>-0.02209505285460108</v>
       </c>
       <c r="T12">
         <v>-0.0003545893497188155</v>
       </c>
       <c r="U12">
-        <v>32.21619686613366</v>
+        <v>28.50246616191293</v>
       </c>
     </row>
     <row r="13">
@@ -1184,7 +1184,7 @@
         <v>19631</v>
       </c>
       <c r="B13">
-        <v>-0.9600058268982357</v>
+        <v>-0.9550606143104533</v>
       </c>
       <c r="C13">
         <v>0.05938176625592118</v>
@@ -1193,10 +1193,10 @@
         <v>-0.02024870216377245</v>
       </c>
       <c r="E13">
-        <v>-0.1188886558557919</v>
+        <v>-0.1203407398168133</v>
       </c>
       <c r="F13">
-        <v>0.1307752570887051</v>
+        <v>0.1311938497346892</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0.04928951217176075</v>
       </c>
       <c r="M13">
-        <v>-0.3156564015004467</v>
+        <v>-0.3156561236342417</v>
       </c>
       <c r="N13">
         <v>-0.006132218496151376</v>
@@ -1229,19 +1229,19 @@
         <v>0.002037935546142287</v>
       </c>
       <c r="Q13">
-        <v>-0.03705412872113237</v>
+        <v>-0.03705795861977643</v>
       </c>
       <c r="R13">
-        <v>-0.004443922222636757</v>
+        <v>-0.004511569734546823</v>
       </c>
       <c r="S13">
-        <v>-0.01725272749018296</v>
+        <v>-0.01996923062599799</v>
       </c>
       <c r="T13">
         <v>-0.0003480279688438602</v>
       </c>
       <c r="U13">
-        <v>28.30995038918526</v>
+        <v>25.04651329162384</v>
       </c>
     </row>
   </sheetData>
